--- a/data/raw/03.1b_edited-species-seeded4_corrected-not-seeded_subplot.xlsx
+++ b/data/raw/03.1b_edited-species-seeded4_corrected-not-seeded_subplot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:40009_{93914BA3-EB17-45C1-AA2F-B7072E2EEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84F3967-A364-434D-9ECC-ADE03F55B7D8}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:40009_{93914BA3-EB17-45C1-AA2F-B7072E2EEE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE8C6098-4D68-40DF-965A-760FB45240A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10763" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10763" uniqueCount="910">
   <si>
     <t>Site</t>
   </si>
@@ -2747,6 +2747,9 @@
   </si>
   <si>
     <t>Unknown forb, not seeded</t>
+  </si>
+  <si>
+    <t>CHAB2</t>
   </si>
 </sst>
 </file>
@@ -3718,8 +3721,8 @@
   <dimension ref="A1:J1077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E517" sqref="E517:E519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20262,7 +20265,7 @@
         <v>508</v>
       </c>
       <c r="E517" t="s">
-        <v>508</v>
+        <v>909</v>
       </c>
       <c r="F517" t="s">
         <v>509</v>
@@ -20294,7 +20297,7 @@
         <v>508</v>
       </c>
       <c r="E518" t="s">
-        <v>508</v>
+        <v>909</v>
       </c>
       <c r="F518" t="s">
         <v>509</v>
@@ -20326,7 +20329,7 @@
         <v>508</v>
       </c>
       <c r="E519" t="s">
-        <v>508</v>
+        <v>909</v>
       </c>
       <c r="F519" t="s">
         <v>509</v>
